--- a/Lab3/3B_tabela.xlsx
+++ b/Lab3/3B_tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -106,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,36 +129,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -174,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +271,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,82 +445,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" customWidth="1"/>
-    <col min="3" max="3" width="3.33203125" customWidth="1"/>
-    <col min="4" max="4" width="5.88671875" customWidth="1"/>
-    <col min="5" max="5" width="3.77734375" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" customWidth="1"/>
+    <col min="1" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" customWidth="1"/>
+    <col min="4" max="4" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="9" max="9" width="2.77734375" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" customWidth="1"/>
-    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="3.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8" t="s">
+      <c r="N1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E3" s="4"/>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -550,54 +522,42 @@
         <v>5</v>
       </c>
       <c r="K3" s="1"/>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="8" t="s">
+      <c r="P3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="R3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
+      <c r="S3" s="6"/>
+      <c r="T3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="V3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="W3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="X3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="7"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
       <c r="G4" s="3">
         <v>0</v>
       </c>
@@ -610,54 +570,42 @@
       <c r="J4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8" t="s">
+      <c r="P4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="7"/>
+      <c r="U4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
       <c r="G5" s="3">
         <v>0</v>
       </c>
@@ -670,54 +618,42 @@
       <c r="J5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="N5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8" t="s">
+      <c r="P5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="W5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="X5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7"/>
+      <c r="U5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
       <c r="G6" s="3">
         <v>0</v>
       </c>
@@ -730,54 +666,42 @@
       <c r="J6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8" t="s">
+      <c r="O6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="8" t="s">
+      <c r="U6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="7"/>
+      <c r="X6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E7" s="5"/>
       <c r="G7" s="3">
         <v>0</v>
       </c>
@@ -790,54 +714,42 @@
       <c r="J7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8" t="s">
+      <c r="O7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="V7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="W7" s="8" t="s">
+      <c r="U7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="X7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7"/>
+      <c r="X7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
       <c r="G8" s="3">
         <v>1</v>
       </c>
@@ -850,34 +762,22 @@
       <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E9" s="5"/>
       <c r="G9" s="3">
         <v>1</v>
       </c>
@@ -890,38 +790,26 @@
       <c r="J9" s="3">
         <v>1</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8" t="s">
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="7"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E10" s="5"/>
       <c r="G10" s="3">
         <v>1</v>
       </c>
@@ -934,34 +822,22 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E11" s="5"/>
       <c r="G11" s="3">
         <v>1</v>
       </c>
@@ -974,175 +850,259 @@
       <c r="J11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" spans="14:26" x14ac:dyDescent="0.3">
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" spans="14:26" x14ac:dyDescent="0.3">
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" spans="14:26" x14ac:dyDescent="0.3">
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" spans="14:26" x14ac:dyDescent="0.3">
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="8"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
-    </row>
-    <row r="21" spans="14:26" x14ac:dyDescent="0.3">
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
-      <c r="R21" s="8"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="8"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="8"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Lab3/3B_tabela.xlsx
+++ b/Lab3/3B_tabela.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" s="7"/>
       <c r="G7" s="3">
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" s="7"/>
       <c r="G8" s="3">
